--- a/Resources/ScheduleExcel.xlsx
+++ b/Resources/ScheduleExcel.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Практика\Prog\BeautyArt\Resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D137F1-D1A9-4BB3-A29F-7DFB544DD88B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="-1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Расписание" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,9 +24,81 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t>Расписание</t>
+  </si>
+  <si>
+    <t>ЧУДОВ BeautyArt</t>
+  </si>
+  <si>
+    <t>Главный офис</t>
+  </si>
+  <si>
+    <t>Адрес: г.Минск, ул. Мельникайте, 2</t>
+  </si>
+  <si>
+    <t>Наименование</t>
+  </si>
+  <si>
+    <t>Тип занятия</t>
+  </si>
+  <si>
+    <t>Ученик</t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Время</t>
+  </si>
+  <si>
+    <t>Кабинет</t>
+  </si>
+  <si>
+    <t>Парикмахер</t>
+  </si>
+  <si>
+    <t>Одиночное</t>
+  </si>
+  <si>
+    <t>Титов</t>
+  </si>
+  <si>
+    <t>09.11.2023 0:00:00</t>
+  </si>
+  <si>
+    <t>12:00 AM</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>Групповое</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>08.11.2023 0:00:00</t>
+  </si>
+  <si>
+    <t>12:59 AM</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>Составил: _______________</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -37,7 +115,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,15 +123,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +423,151 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.8758272443499" customWidth="1" style="1"/>
+    <col min="2" max="2" width="15.3091648646763" customWidth="1" style="1"/>
+    <col min="3" max="3" width="9.76798793247768" customWidth="1" style="1"/>
+    <col min="4" max="4" width="22.7749829973493" customWidth="1" style="1"/>
+    <col min="5" max="5" width="12.2553144182478" customWidth="1" style="1"/>
+    <col min="6" max="6" width="11.0685588291713" customWidth="1" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+  </mergeCells>
+  <pageSetup orientation="landscape"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Resources/ScheduleExcel.xlsx
+++ b/Resources/ScheduleExcel.xlsx
@@ -60,34 +60,34 @@
     <t>Парикмахер</t>
   </si>
   <si>
+    <t>Групповое</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>08.11.2023 0:00:00</t>
+  </si>
+  <si>
+    <t>12:59 AM</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
     <t>Одиночное</t>
   </si>
   <si>
     <t>Титов</t>
   </si>
   <si>
-    <t>09.11.2023 0:00:00</t>
-  </si>
-  <si>
-    <t>12:00 AM</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>Групповое</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>08.11.2023 0:00:00</t>
-  </si>
-  <si>
-    <t>12:59 AM</t>
-  </si>
-  <si>
-    <t>110</t>
+    <t>12.11.2023 0:00:00</t>
+  </si>
+  <si>
+    <t>12:01 AM</t>
+  </si>
+  <si>
+    <t>111</t>
   </si>
   <si>
     <t>Составил: _______________</t>

--- a/Resources/ScheduleExcel.xlsx
+++ b/Resources/ScheduleExcel.xlsx
@@ -78,7 +78,7 @@
     <t>Одиночное</t>
   </si>
   <si>
-    <t>Титов</t>
+    <t>Витальевич</t>
   </si>
   <si>
     <t>12.11.2023 0:00:00</t>
@@ -432,7 +432,7 @@
   <cols>
     <col min="1" max="1" width="18.8758272443499" customWidth="1" style="1"/>
     <col min="2" max="2" width="15.3091648646763" customWidth="1" style="1"/>
-    <col min="3" max="3" width="9.76798793247768" customWidth="1" style="1"/>
+    <col min="3" max="3" width="14.8487854003906" customWidth="1" style="1"/>
     <col min="4" max="4" width="22.7749829973493" customWidth="1" style="1"/>
     <col min="5" max="5" width="12.2553144182478" customWidth="1" style="1"/>
     <col min="6" max="6" width="11.0685588291713" customWidth="1" style="1"/>
